--- a/resources/GSEA3/students.xlsx
+++ b/resources/GSEA3/students.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GINF2_2021_2022\XML\Projets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\GSEA3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AB574E3-167F-4312-873E-2D70B0878A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0A438D-B187-4FCE-8135-5AAEA26FA0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7360" xr2:uid="{13384122-1722-404B-9BCC-C24B4521C5B6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{13384122-1722-404B-9BCC-C24B4521C5B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -481,10 +481,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -504,10 +504,10 @@
         <v>17000021</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
       <c r="D2" s="1">
         <v>36350</v>
@@ -519,7 +519,7 @@
         <v>691037457</v>
       </c>
       <c r="G2" t="str">
-        <f>CONCATENATE(B2,".",C2,"@etu.uae.ac.ma")</f>
+        <f>CONCATENATE(C2,".",B2,"@etu.uae.ac.ma")</f>
         <v>Gsea3_FN1.Gsea3_LN1@etu.uae.ac.ma</v>
       </c>
     </row>
@@ -528,10 +528,10 @@
         <v>17000022</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
       </c>
       <c r="D3" s="1">
         <v>35652</v>
@@ -543,7 +543,7 @@
         <v>673654499</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G11" si="0">CONCATENATE(B3,".",C3,"@etu.uae.ac.ma")</f>
+        <f>CONCATENATE(C3,".",B3,"@etu.uae.ac.ma")</f>
         <v>Gsea3_FN2.Gsea3_LN2@etu.uae.ac.ma</v>
       </c>
     </row>
@@ -552,10 +552,10 @@
         <v>17000023</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
       </c>
       <c r="D4" s="1">
         <v>36810</v>
@@ -567,7 +567,7 @@
         <v>635467593</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C4,".",B4,"@etu.uae.ac.ma")</f>
         <v>Gsea3_FN3.Gsea3_LN3@etu.uae.ac.ma</v>
       </c>
     </row>
@@ -576,10 +576,10 @@
         <v>17000024</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
       </c>
       <c r="D5" s="1">
         <v>36506</v>
@@ -591,7 +591,7 @@
         <v>695472990</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C5,".",B5,"@etu.uae.ac.ma")</f>
         <v>Gsea3_FN4.Gsea3_LN4@etu.uae.ac.ma</v>
       </c>
     </row>
@@ -600,10 +600,10 @@
         <v>17000025</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
       </c>
       <c r="D6" s="1">
         <v>35839</v>
@@ -615,7 +615,7 @@
         <v>667735243</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C6,".",B6,"@etu.uae.ac.ma")</f>
         <v>Gsea3_FN5.Gsea3_LN5@etu.uae.ac.ma</v>
       </c>
     </row>
@@ -624,10 +624,10 @@
         <v>17000026</v>
       </c>
       <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
       </c>
       <c r="D7" s="1">
         <v>36205</v>
@@ -639,7 +639,7 @@
         <v>663902080</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C7,".",B7,"@etu.uae.ac.ma")</f>
         <v>Gsea3_FN6.Gsea3_LN6@etu.uae.ac.ma</v>
       </c>
     </row>
@@ -648,10 +648,10 @@
         <v>17000027</v>
       </c>
       <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
       </c>
       <c r="D8" s="1">
         <v>35810</v>
@@ -663,7 +663,7 @@
         <v>676342820</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C8,".",B8,"@etu.uae.ac.ma")</f>
         <v>Gsea3_FN7.Gsea3_LN7@etu.uae.ac.ma</v>
       </c>
     </row>
@@ -672,10 +672,10 @@
         <v>17000028</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
       </c>
       <c r="D9" s="1">
         <v>36296</v>
@@ -687,7 +687,7 @@
         <v>647389290</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C9,".",B9,"@etu.uae.ac.ma")</f>
         <v>Gsea3_FN8.Gsea3_LN8@etu.uae.ac.ma</v>
       </c>
     </row>
@@ -696,10 +696,10 @@
         <v>17000029</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" s="1">
         <v>36236</v>
@@ -711,7 +711,7 @@
         <v>699773634</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C10,".",B10,"@etu.uae.ac.ma")</f>
         <v>Gsea3_FN9.Gsea3_LN9@etu.uae.ac.ma</v>
       </c>
     </row>
@@ -720,10 +720,10 @@
         <v>17000030</v>
       </c>
       <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
       </c>
       <c r="D11" s="1">
         <v>36817</v>
@@ -735,7 +735,7 @@
         <v>699987666</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C11,".",B11,"@etu.uae.ac.ma")</f>
         <v>Gsea3_FN10.Gsea3_LN10@etu.uae.ac.ma</v>
       </c>
     </row>

--- a/resources/GSEA3/students.xlsx
+++ b/resources/GSEA3/students.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\GSEA3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0A438D-B187-4FCE-8135-5AAEA26FA0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48250CA9-4F2F-4121-AFD7-DA5826EBB982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{13384122-1722-404B-9BCC-C24B4521C5B6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="158">
   <si>
     <t>CNE</t>
   </si>
@@ -55,77 +55,476 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Gsea3_FN1</t>
-  </si>
-  <si>
-    <t>Gsea3_LN1</t>
-  </si>
-  <si>
     <t>Gsea3</t>
   </si>
   <si>
-    <t>Gsea3_FN2</t>
-  </si>
-  <si>
-    <t>Gsea3_LN2</t>
-  </si>
-  <si>
-    <t>Gsea3_FN3</t>
-  </si>
-  <si>
-    <t>Gsea3_LN3</t>
-  </si>
-  <si>
-    <t>Gsea3_FN4</t>
-  </si>
-  <si>
-    <t>Gsea3_LN4</t>
-  </si>
-  <si>
-    <t>Gsea3_FN5</t>
-  </si>
-  <si>
-    <t>Gsea3_LN5</t>
-  </si>
-  <si>
-    <t>Gsea3_FN6</t>
-  </si>
-  <si>
-    <t>Gsea3_LN6</t>
-  </si>
-  <si>
-    <t>Gsea3_FN7</t>
-  </si>
-  <si>
-    <t>Gsea3_LN7</t>
-  </si>
-  <si>
-    <t>Gsea3_FN8</t>
-  </si>
-  <si>
-    <t>Gsea3_LN8</t>
-  </si>
-  <si>
-    <t>Gsea3_FN9</t>
-  </si>
-  <si>
-    <t>Gsea3_LN9</t>
-  </si>
-  <si>
-    <t>Gsea3_FN10</t>
-  </si>
-  <si>
-    <t>Gsea3_LN10</t>
+    <t>Lacey Atkins</t>
+  </si>
+  <si>
+    <t>Duncan</t>
+  </si>
+  <si>
+    <t>Ruby Walls</t>
+  </si>
+  <si>
+    <t>Cole</t>
+  </si>
+  <si>
+    <t>Kyla Orr</t>
+  </si>
+  <si>
+    <t>Kermit</t>
+  </si>
+  <si>
+    <t>Miranda Mccall</t>
+  </si>
+  <si>
+    <t>Allegra</t>
+  </si>
+  <si>
+    <t>Dylan Castaneda</t>
+  </si>
+  <si>
+    <t>Norman</t>
+  </si>
+  <si>
+    <t>Kevin Dodson</t>
+  </si>
+  <si>
+    <t>Allistair</t>
+  </si>
+  <si>
+    <t>Noelle Hoffman</t>
+  </si>
+  <si>
+    <t>Keegan</t>
+  </si>
+  <si>
+    <t>Vincent Mcgee</t>
+  </si>
+  <si>
+    <t>Philip</t>
+  </si>
+  <si>
+    <t>Maisie Terry</t>
+  </si>
+  <si>
+    <t>Zachery</t>
+  </si>
+  <si>
+    <t>Minerva Jenkins</t>
+  </si>
+  <si>
+    <t>Thane</t>
+  </si>
+  <si>
+    <t>Hayden Burns</t>
+  </si>
+  <si>
+    <t>Mohammad</t>
+  </si>
+  <si>
+    <t>Fredericka Kinney</t>
+  </si>
+  <si>
+    <t>Fiona</t>
+  </si>
+  <si>
+    <t>David Atkinson</t>
+  </si>
+  <si>
+    <t>Meredith</t>
+  </si>
+  <si>
+    <t>Odysseus Singleton</t>
+  </si>
+  <si>
+    <t>Eugenia</t>
+  </si>
+  <si>
+    <t>Benedict Byrd</t>
+  </si>
+  <si>
+    <t>Alec</t>
+  </si>
+  <si>
+    <t>Elton Hodges</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>Camilla Ryan</t>
+  </si>
+  <si>
+    <t>Priscilla</t>
+  </si>
+  <si>
+    <t>Hiroko Cook</t>
+  </si>
+  <si>
+    <t>Hayes</t>
+  </si>
+  <si>
+    <t>Stuart Williams</t>
+  </si>
+  <si>
+    <t>Baker</t>
+  </si>
+  <si>
+    <t>Jesse Sandoval</t>
+  </si>
+  <si>
+    <t>Samson</t>
+  </si>
+  <si>
+    <t>Ronan Griffin</t>
+  </si>
+  <si>
+    <t>Raya</t>
+  </si>
+  <si>
+    <t>Rahim Dillard</t>
+  </si>
+  <si>
+    <t>Darrel</t>
+  </si>
+  <si>
+    <t>Alexandra Cantu</t>
+  </si>
+  <si>
+    <t>Emerald</t>
+  </si>
+  <si>
+    <t>Emerald Rollins</t>
+  </si>
+  <si>
+    <t>Zelda</t>
+  </si>
+  <si>
+    <t>Harriet Terry</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Iola Coffey</t>
+  </si>
+  <si>
+    <t>Stacy</t>
+  </si>
+  <si>
+    <t>Jameson Ortiz</t>
+  </si>
+  <si>
+    <t>Chester</t>
+  </si>
+  <si>
+    <t>Kasper Blackburn</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>Xander Pace</t>
+  </si>
+  <si>
+    <t>Deanna</t>
+  </si>
+  <si>
+    <t>Britanney Sparks</t>
+  </si>
+  <si>
+    <t>Kiona</t>
+  </si>
+  <si>
+    <t>Bruce Fowler</t>
+  </si>
+  <si>
+    <t>Violet</t>
+  </si>
+  <si>
+    <t>Gay Ware</t>
+  </si>
+  <si>
+    <t>Dieter</t>
+  </si>
+  <si>
+    <t>Wang Larson</t>
+  </si>
+  <si>
+    <t>Blossom</t>
+  </si>
+  <si>
+    <t>Cameran Clay</t>
+  </si>
+  <si>
+    <t>Caesar</t>
+  </si>
+  <si>
+    <t>Jolie Barr</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Maryam Vasquez</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Quynn Park</t>
+  </si>
+  <si>
+    <t>Cathleen</t>
+  </si>
+  <si>
+    <t>India Jordan</t>
+  </si>
+  <si>
+    <t>Raymond</t>
+  </si>
+  <si>
+    <t>Honorato Gallegos</t>
+  </si>
+  <si>
+    <t>Laurel</t>
+  </si>
+  <si>
+    <t>Astra Hansen</t>
+  </si>
+  <si>
+    <t>Sawyer</t>
+  </si>
+  <si>
+    <t>Echo Mclean</t>
+  </si>
+  <si>
+    <t>Fuller</t>
+  </si>
+  <si>
+    <t>Austin Lowe</t>
+  </si>
+  <si>
+    <t>Damon</t>
+  </si>
+  <si>
+    <t>Mollie Robinson</t>
+  </si>
+  <si>
+    <t>Elaine</t>
+  </si>
+  <si>
+    <t>Mohammad Coffey</t>
+  </si>
+  <si>
+    <t>Camille</t>
+  </si>
+  <si>
+    <t>Tara Mendoza</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>Christine Frye</t>
+  </si>
+  <si>
+    <t>Tanner</t>
+  </si>
+  <si>
+    <t>Dalton Bradford</t>
+  </si>
+  <si>
+    <t>Charity</t>
+  </si>
+  <si>
+    <t>Kato Hall</t>
+  </si>
+  <si>
+    <t>Yael</t>
+  </si>
+  <si>
+    <t>Jessica Solis</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Kitra Ware</t>
+  </si>
+  <si>
+    <t>Phyllis</t>
+  </si>
+  <si>
+    <t>02 84 67 18 11</t>
+  </si>
+  <si>
+    <t>05 61 25 25 86</t>
+  </si>
+  <si>
+    <t>04 59 67 97 12</t>
+  </si>
+  <si>
+    <t>02 46 88 84 88</t>
+  </si>
+  <si>
+    <t>03 54 57 65 28</t>
+  </si>
+  <si>
+    <t>05 40 17 69 55</t>
+  </si>
+  <si>
+    <t>09 36 26 63 55</t>
+  </si>
+  <si>
+    <t>01 54 84 55 38</t>
+  </si>
+  <si>
+    <t>02 75 18 73 22</t>
+  </si>
+  <si>
+    <t>07 99 18 22 18</t>
+  </si>
+  <si>
+    <t>05 75 27 74 34</t>
+  </si>
+  <si>
+    <t>04 79 10 67 33</t>
+  </si>
+  <si>
+    <t>06 68 26 86 56</t>
+  </si>
+  <si>
+    <t>08 61 53 72 66</t>
+  </si>
+  <si>
+    <t>05 27 35 25 36</t>
+  </si>
+  <si>
+    <t>04 62 46 52 84</t>
+  </si>
+  <si>
+    <t>02 29 33 45 38</t>
+  </si>
+  <si>
+    <t>04 56 45 32 37</t>
+  </si>
+  <si>
+    <t>07 39 58 01 38</t>
+  </si>
+  <si>
+    <t>05 26 88 19 70</t>
+  </si>
+  <si>
+    <t>03 17 56 52 07</t>
+  </si>
+  <si>
+    <t>07 21 41 73 78</t>
+  </si>
+  <si>
+    <t>07 46 32 71 96</t>
+  </si>
+  <si>
+    <t>06 42 52 67 06</t>
+  </si>
+  <si>
+    <t>01 61 55 96 15</t>
+  </si>
+  <si>
+    <t>04 22 40 38 11</t>
+  </si>
+  <si>
+    <t>04 75 26 53 28</t>
+  </si>
+  <si>
+    <t>07 52 34 71 19</t>
+  </si>
+  <si>
+    <t>05 14 46 23 69</t>
+  </si>
+  <si>
+    <t>04 13 42 09 31</t>
+  </si>
+  <si>
+    <t>03 42 09 93 46</t>
+  </si>
+  <si>
+    <t>06 75 36 75 70</t>
+  </si>
+  <si>
+    <t>03 12 20 41 45</t>
+  </si>
+  <si>
+    <t>08 89 26 35 61</t>
+  </si>
+  <si>
+    <t>02 51 51 40 11</t>
+  </si>
+  <si>
+    <t>05 48 72 74 67</t>
+  </si>
+  <si>
+    <t>01 31 29 37 13</t>
+  </si>
+  <si>
+    <t>02 57 31 44 64</t>
+  </si>
+  <si>
+    <t>06 54 42 59 41</t>
+  </si>
+  <si>
+    <t>07 55 35 54 23</t>
+  </si>
+  <si>
+    <t>06 27 93 51 26</t>
+  </si>
+  <si>
+    <t>05 52 82 05 83</t>
+  </si>
+  <si>
+    <t>09 56 47 46 13</t>
+  </si>
+  <si>
+    <t>08 41 57 32 75</t>
+  </si>
+  <si>
+    <t>09 83 47 41 34</t>
+  </si>
+  <si>
+    <t>07 15 58 57 19</t>
+  </si>
+  <si>
+    <t>07 70 02 77 34</t>
+  </si>
+  <si>
+    <t>05 18 02 56 62</t>
+  </si>
+  <si>
+    <t>08 78 72 48 20</t>
+  </si>
+  <si>
+    <t>07 31 42 02 22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -153,7 +552,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6682E3AD-C939-4EF0-9D79-19EEA0DCD241}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -501,245 +900,1206 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>17000021</v>
+        <v>17000101</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1">
-        <v>36350</v>
+        <v>36794</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>691037457</v>
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>157</v>
       </c>
       <c r="G2" t="str">
-        <f>CONCATENATE(C2,".",B2,"@etu.uae.ac.ma")</f>
-        <v>Gsea3_FN1.Gsea3_LN1@etu.uae.ac.ma</v>
+        <f>CONCATENATE(SUBSTITUTE(B2," ",""),".",SUBSTITUTE(C2," ",""),"@etu.uae.ac.ma")</f>
+        <v>Phyllis.KitraWare@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>17000022</v>
+        <v>17000102</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="D3" s="1">
-        <v>35652</v>
+        <v>38053</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>673654499</v>
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>156</v>
       </c>
       <c r="G3" t="str">
-        <f>CONCATENATE(C3,".",B3,"@etu.uae.ac.ma")</f>
-        <v>Gsea3_FN2.Gsea3_LN2@etu.uae.ac.ma</v>
+        <f t="shared" ref="G3:G51" si="0">CONCATENATE(SUBSTITUTE(B3," ",""),".",SUBSTITUTE(C3," ",""),"@etu.uae.ac.ma")</f>
+        <v>May.JessicaSolis@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>17000023</v>
+        <v>17000103</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="D4" s="1">
-        <v>36810</v>
+        <v>39188</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>635467593</v>
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>155</v>
       </c>
       <c r="G4" t="str">
-        <f>CONCATENATE(C4,".",B4,"@etu.uae.ac.ma")</f>
-        <v>Gsea3_FN3.Gsea3_LN3@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>Yael.KatoHall@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>17000024</v>
+        <v>17000104</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1">
-        <v>36506</v>
+        <v>41419</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>695472990</v>
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>154</v>
       </c>
       <c r="G5" t="str">
-        <f>CONCATENATE(C5,".",B5,"@etu.uae.ac.ma")</f>
-        <v>Gsea3_FN4.Gsea3_LN4@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>Charity.DaltonBradford@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>17000025</v>
+        <v>17000105</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="D6" s="1">
-        <v>35839</v>
+        <v>36688</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>667735243</v>
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>153</v>
       </c>
       <c r="G6" t="str">
-        <f>CONCATENATE(C6,".",B6,"@etu.uae.ac.ma")</f>
-        <v>Gsea3_FN5.Gsea3_LN5@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>Tanner.ChristineFrye@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>17000026</v>
+        <v>17000106</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D7" s="1">
-        <v>36205</v>
+        <v>39528</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7">
-        <v>663902080</v>
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>152</v>
       </c>
       <c r="G7" t="str">
-        <f>CONCATENATE(C7,".",B7,"@etu.uae.ac.ma")</f>
-        <v>Gsea3_FN6.Gsea3_LN6@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>Logan.TaraMendoza@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>17000027</v>
+        <v>17000107</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="D8" s="1">
-        <v>35810</v>
+        <v>39126</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8">
-        <v>676342820</v>
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>151</v>
       </c>
       <c r="G8" t="str">
-        <f>CONCATENATE(C8,".",B8,"@etu.uae.ac.ma")</f>
-        <v>Gsea3_FN7.Gsea3_LN7@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>Camille.MohammadCoffey@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>17000028</v>
+        <v>17000108</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="D9" s="1">
-        <v>36296</v>
+        <v>36783</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9">
-        <v>647389290</v>
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>150</v>
       </c>
       <c r="G9" t="str">
-        <f>CONCATENATE(C9,".",B9,"@etu.uae.ac.ma")</f>
-        <v>Gsea3_FN8.Gsea3_LN8@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>Elaine.MollieRobinson@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>17000029</v>
+        <v>17000109</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="D10" s="1">
-        <v>36236</v>
+        <v>39928</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10">
-        <v>699773634</v>
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>149</v>
       </c>
       <c r="G10" t="str">
-        <f>CONCATENATE(C10,".",B10,"@etu.uae.ac.ma")</f>
-        <v>Gsea3_FN9.Gsea3_LN9@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>Damon.AustinLowe@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>17000030</v>
+        <v>17000110</v>
       </c>
       <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="1">
+        <v>39779</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>Fuller.EchoMclean@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>17000111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="1">
+        <v>41403</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>Sawyer.AstraHansen@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>17000112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="1">
+        <v>38985</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>Laurel.HonoratoGallegos@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>17000113</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="1">
+        <v>39354</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>Raymond.IndiaJordan@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>17000114</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="1">
+        <v>41428</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>Cathleen.QuynnPark@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>17000115</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="1">
+        <v>39241</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>Jason.MaryamVasquez@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>17000116</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="1">
+        <v>38377</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>Virginia.JolieBarr@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17000117</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="1">
+        <v>37493</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>Caesar.CameranClay@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>17000118</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="1">
+        <v>38105</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>Blossom.WangLarson@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>17000119</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="1">
+        <v>36567</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>Dieter.GayWare@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>17000120</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="1">
+        <v>39334</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>Violet.BruceFowler@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>17000121</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="1">
+        <v>37349</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>Kiona.BritanneySparks@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>17000122</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="1">
+        <v>37409</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>Deanna.XanderPace@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>17000123</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="1">
+        <v>40686</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>Liberty.KasperBlackburn@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>17000124</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="1">
+        <v>38102</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>Chester.JamesonOrtiz@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>17000125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="1">
+        <v>37528</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>Stacy.IolaCoffey@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>17000126</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="1">
+        <v>40061</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>Jordan.HarrietTerry@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>17000127</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="1">
+        <v>38711</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>Zelda.EmeraldRollins@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>17000128</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="1">
+        <v>40425</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>Emerald.AlexandraCantu@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>17000129</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="1">
+        <v>41657</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>Darrel.RahimDillard@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>17000130</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="1">
+        <v>40696</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>Raya.RonanGriffin@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>17000131</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="1">
+        <v>39820</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>Samson.JesseSandoval@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>17000132</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="1">
+        <v>38555</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>Baker.StuartWilliams@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>17000133</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="1">
+        <v>38189</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>Hayes.HirokoCook@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>17000134</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="1">
+        <v>40241</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>124</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>Priscilla.CamillaRyan@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>17000135</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="1">
+        <v>36968</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>123</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>Brian.EltonHodges@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>17000136</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="1">
+        <v>38038</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>Alec.BenedictByrd@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>17000137</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="1">
+        <v>39602</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>Eugenia.OdysseusSingleton@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>17000138</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="1">
+        <v>40020</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>Meredith.DavidAtkinson@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>17000139</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="1">
+        <v>39425</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
+        <v>119</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>Fiona.FrederickaKinney@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>17000140</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="1">
+        <v>39667</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>118</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>Mohammad.HaydenBurns@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>17000141</v>
+      </c>
+      <c r="B42" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C42" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="1">
-        <v>36817</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D42" s="1">
+        <v>37740</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
+        <v>117</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>Thane.MinervaJenkins@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>17000142</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="1">
+        <v>41058</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>Zachery.MaisieTerry@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>17000143</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="1">
+        <v>40856</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
+        <v>115</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>Philip.VincentMcgee@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>17000144</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="1">
+        <v>40374</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
+        <v>114</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>Keegan.NoelleHoffman@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>17000145</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="1">
+        <v>39271</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>Allistair.KevinDodson@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>17000146</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="1">
+        <v>37569</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
+        <v>112</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>Norman.DylanCastaneda@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>17000147</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="1">
+        <v>41218</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
+        <v>111</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>Allegra.MirandaMccall@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>17000148</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="1">
+        <v>39971</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" t="s">
+        <v>110</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>Kermit.KylaOrr@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>17000149</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="1">
+        <v>41139</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v>Cole.RubyWalls@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>17000150</v>
+      </c>
+      <c r="B51" t="s">
         <v>9</v>
       </c>
-      <c r="F11">
-        <v>699987666</v>
-      </c>
-      <c r="G11" t="str">
-        <f>CONCATENATE(C11,".",B11,"@etu.uae.ac.ma")</f>
-        <v>Gsea3_FN10.Gsea3_LN10@etu.uae.ac.ma</v>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="1">
+        <v>41302</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
+        <v>108</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="0"/>
+        <v>Duncan.LaceyAtkins@etu.uae.ac.ma</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>